--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,29 +461,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E2" t="n">
+        <v>234406</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19546</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>浙江世宝</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>sz002703</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>8.27</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>218851</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>18240</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G3" t="n">
         <v>3.96</v>
       </c>
     </row>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,44 +475,73 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.26</v>
+        <v>9.09</v>
       </c>
       <c r="E2" t="n">
-        <v>234406</v>
+        <v>535573</v>
       </c>
       <c r="F2" t="n">
-        <v>19546</v>
+        <v>45640</v>
       </c>
       <c r="G2" t="n">
-        <v>4.24</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E3" t="n">
+        <v>234406</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19546</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>浙江世宝</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>sz002703</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>8.27</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>218851</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>18240</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>3.96</v>
       </c>
     </row>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.09</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>535573</v>
+        <v>499486</v>
       </c>
       <c r="F2" t="n">
-        <v>45640</v>
+        <v>45583</v>
       </c>
       <c r="G2" t="n">
-        <v>9.68</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,44 +504,102 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.26</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>234406</v>
+        <v>888094</v>
       </c>
       <c r="F3" t="n">
-        <v>19546</v>
+        <v>83592</v>
       </c>
       <c r="G3" t="n">
-        <v>4.24</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E4" t="n">
+        <v>535573</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45640</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E5" t="n">
+        <v>234406</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19546</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>浙江世宝</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>sz002703</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D6" t="n">
         <v>8.27</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E6" t="n">
         <v>218851</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F6" t="n">
         <v>18240</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G6" t="n">
         <v>3.96</v>
       </c>
     </row>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.949999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>499486</v>
+        <v>418299</v>
       </c>
       <c r="F2" t="n">
-        <v>45583</v>
+        <v>35499</v>
       </c>
       <c r="G2" t="n">
-        <v>9.029999999999999</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.279999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>888094</v>
+        <v>499486</v>
       </c>
       <c r="F3" t="n">
-        <v>83592</v>
+        <v>45583</v>
       </c>
       <c r="G3" t="n">
-        <v>16.06</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.09</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>535573</v>
+        <v>888094</v>
       </c>
       <c r="F4" t="n">
-        <v>45640</v>
+        <v>83592</v>
       </c>
       <c r="G4" t="n">
-        <v>9.68</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,44 +562,73 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.26</v>
+        <v>9.09</v>
       </c>
       <c r="E5" t="n">
-        <v>234406</v>
+        <v>535573</v>
       </c>
       <c r="F5" t="n">
-        <v>19546</v>
+        <v>45640</v>
       </c>
       <c r="G5" t="n">
-        <v>4.24</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E6" t="n">
+        <v>234406</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19546</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>浙江世宝</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>sz002703</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.27</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>218851</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>18240</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>3.96</v>
       </c>
     </row>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.220000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="E2" t="n">
-        <v>418299</v>
+        <v>897256</v>
       </c>
       <c r="F2" t="n">
-        <v>35499</v>
+        <v>87405</v>
       </c>
       <c r="G2" t="n">
-        <v>7.56</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.949999999999999</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>499486</v>
+        <v>1082194</v>
       </c>
       <c r="F3" t="n">
-        <v>45583</v>
+        <v>106493</v>
       </c>
       <c r="G3" t="n">
-        <v>9.029999999999999</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.279999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="E4" t="n">
-        <v>888094</v>
+        <v>499271</v>
       </c>
       <c r="F4" t="n">
-        <v>83592</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>16.06</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.09</v>
+        <v>8.57</v>
       </c>
       <c r="E5" t="n">
-        <v>535573</v>
+        <v>319750</v>
       </c>
       <c r="F5" t="n">
-        <v>45640</v>
+        <v>27063</v>
       </c>
       <c r="G5" t="n">
-        <v>9.68</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,44 +591,189 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.26</v>
+        <v>8.41</v>
       </c>
       <c r="E6" t="n">
-        <v>234406</v>
+        <v>287076</v>
       </c>
       <c r="F6" t="n">
-        <v>19546</v>
+        <v>24107</v>
       </c>
       <c r="G6" t="n">
-        <v>4.24</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>418299</v>
+      </c>
+      <c r="F7" t="n">
+        <v>35499</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>499486</v>
+      </c>
+      <c r="F8" t="n">
+        <v>45583</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>888094</v>
+      </c>
+      <c r="F9" t="n">
+        <v>83592</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E10" t="n">
+        <v>535573</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45640</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>234406</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19546</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>浙江世宝</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>sz002703</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>8.27</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E12" t="n">
         <v>218851</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F12" t="n">
         <v>18240</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G12" t="n">
         <v>3.96</v>
       </c>
     </row>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.05</v>
+        <v>9.77</v>
       </c>
       <c r="E2" t="n">
-        <v>897256</v>
+        <v>579408</v>
       </c>
       <c r="F2" t="n">
-        <v>87405</v>
+        <v>56555</v>
       </c>
       <c r="G2" t="n">
-        <v>16.22</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.550000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="E3" t="n">
-        <v>1082194</v>
+        <v>897256</v>
       </c>
       <c r="F3" t="n">
-        <v>106493</v>
+        <v>87405</v>
       </c>
       <c r="G3" t="n">
-        <v>19.57</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.43</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>499271</v>
+        <v>1082194</v>
       </c>
       <c r="F4" t="n">
-        <v>45078</v>
+        <v>106493</v>
       </c>
       <c r="G4" t="n">
-        <v>9.029999999999999</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.57</v>
+        <v>9.43</v>
       </c>
       <c r="E5" t="n">
-        <v>319750</v>
+        <v>499271</v>
       </c>
       <c r="F5" t="n">
-        <v>27063</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>5.78</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.41</v>
+        <v>8.57</v>
       </c>
       <c r="E6" t="n">
-        <v>287076</v>
+        <v>319750</v>
       </c>
       <c r="F6" t="n">
-        <v>24107</v>
+        <v>27063</v>
       </c>
       <c r="G6" t="n">
-        <v>5.19</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8.220000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="E7" t="n">
-        <v>418299</v>
+        <v>287076</v>
       </c>
       <c r="F7" t="n">
-        <v>35499</v>
+        <v>24107</v>
       </c>
       <c r="G7" t="n">
-        <v>7.56</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.949999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>499486</v>
+        <v>418299</v>
       </c>
       <c r="F8" t="n">
-        <v>45583</v>
+        <v>35499</v>
       </c>
       <c r="G8" t="n">
-        <v>9.029999999999999</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.279999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>888094</v>
+        <v>499486</v>
       </c>
       <c r="F9" t="n">
-        <v>83592</v>
+        <v>45583</v>
       </c>
       <c r="G9" t="n">
-        <v>16.06</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9.09</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>535573</v>
+        <v>888094</v>
       </c>
       <c r="F10" t="n">
-        <v>45640</v>
+        <v>83592</v>
       </c>
       <c r="G10" t="n">
-        <v>9.68</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,44 +736,73 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8.26</v>
+        <v>9.09</v>
       </c>
       <c r="E11" t="n">
-        <v>234406</v>
+        <v>535573</v>
       </c>
       <c r="F11" t="n">
-        <v>19546</v>
+        <v>45640</v>
       </c>
       <c r="G11" t="n">
-        <v>4.24</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E12" t="n">
+        <v>234406</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19546</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>浙江世宝</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>sz002703</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>8.27</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>218851</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>18240</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>3.96</v>
       </c>
     </row>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.77</v>
+        <v>9.74</v>
       </c>
       <c r="E2" t="n">
-        <v>579408</v>
+        <v>330373</v>
       </c>
       <c r="F2" t="n">
-        <v>56555</v>
+        <v>31969</v>
       </c>
       <c r="G2" t="n">
-        <v>10.48</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.05</v>
+        <v>9.77</v>
       </c>
       <c r="E3" t="n">
-        <v>897256</v>
+        <v>579408</v>
       </c>
       <c r="F3" t="n">
-        <v>87405</v>
+        <v>56555</v>
       </c>
       <c r="G3" t="n">
-        <v>16.22</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.550000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="E4" t="n">
-        <v>1082194</v>
+        <v>897256</v>
       </c>
       <c r="F4" t="n">
-        <v>106493</v>
+        <v>87405</v>
       </c>
       <c r="G4" t="n">
-        <v>19.57</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.43</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>499271</v>
+        <v>1082194</v>
       </c>
       <c r="F5" t="n">
-        <v>45078</v>
+        <v>106493</v>
       </c>
       <c r="G5" t="n">
-        <v>9.029999999999999</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.57</v>
+        <v>9.43</v>
       </c>
       <c r="E6" t="n">
-        <v>319750</v>
+        <v>499271</v>
       </c>
       <c r="F6" t="n">
-        <v>27063</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>5.78</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8.41</v>
+        <v>8.57</v>
       </c>
       <c r="E7" t="n">
-        <v>287076</v>
+        <v>319750</v>
       </c>
       <c r="F7" t="n">
-        <v>24107</v>
+        <v>27063</v>
       </c>
       <c r="G7" t="n">
-        <v>5.19</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.220000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="E8" t="n">
-        <v>418299</v>
+        <v>287076</v>
       </c>
       <c r="F8" t="n">
-        <v>35499</v>
+        <v>24107</v>
       </c>
       <c r="G8" t="n">
-        <v>7.56</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8.949999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>499486</v>
+        <v>418299</v>
       </c>
       <c r="F9" t="n">
-        <v>45583</v>
+        <v>35499</v>
       </c>
       <c r="G9" t="n">
-        <v>9.029999999999999</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9.279999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>888094</v>
+        <v>499486</v>
       </c>
       <c r="F10" t="n">
-        <v>83592</v>
+        <v>45583</v>
       </c>
       <c r="G10" t="n">
-        <v>16.06</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.09</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>535573</v>
+        <v>888094</v>
       </c>
       <c r="F11" t="n">
-        <v>45640</v>
+        <v>83592</v>
       </c>
       <c r="G11" t="n">
-        <v>9.68</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,44 +765,73 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8.26</v>
+        <v>9.09</v>
       </c>
       <c r="E12" t="n">
-        <v>234406</v>
+        <v>535573</v>
       </c>
       <c r="F12" t="n">
-        <v>19546</v>
+        <v>45640</v>
       </c>
       <c r="G12" t="n">
-        <v>4.24</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E13" t="n">
+        <v>234406</v>
+      </c>
+      <c r="F13" t="n">
+        <v>19546</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>浙江世宝</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>sz002703</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>8.27</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>218851</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>18240</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>3.96</v>
       </c>
     </row>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.74</v>
+        <v>9.6</v>
       </c>
       <c r="E2" t="n">
-        <v>330373</v>
+        <v>336117</v>
       </c>
       <c r="F2" t="n">
-        <v>31969</v>
+        <v>32583</v>
       </c>
       <c r="G2" t="n">
-        <v>5.97</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.77</v>
+        <v>9.74</v>
       </c>
       <c r="E3" t="n">
-        <v>579408</v>
+        <v>330373</v>
       </c>
       <c r="F3" t="n">
-        <v>56555</v>
+        <v>31969</v>
       </c>
       <c r="G3" t="n">
-        <v>10.48</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.05</v>
+        <v>9.77</v>
       </c>
       <c r="E4" t="n">
-        <v>897256</v>
+        <v>579408</v>
       </c>
       <c r="F4" t="n">
-        <v>87405</v>
+        <v>56555</v>
       </c>
       <c r="G4" t="n">
-        <v>16.22</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.550000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="E5" t="n">
-        <v>1082194</v>
+        <v>897256</v>
       </c>
       <c r="F5" t="n">
-        <v>106493</v>
+        <v>87405</v>
       </c>
       <c r="G5" t="n">
-        <v>19.57</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.43</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>499271</v>
+        <v>1082194</v>
       </c>
       <c r="F6" t="n">
-        <v>45078</v>
+        <v>106493</v>
       </c>
       <c r="G6" t="n">
-        <v>9.029999999999999</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8.57</v>
+        <v>9.43</v>
       </c>
       <c r="E7" t="n">
-        <v>319750</v>
+        <v>499271</v>
       </c>
       <c r="F7" t="n">
-        <v>27063</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>5.78</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.41</v>
+        <v>8.57</v>
       </c>
       <c r="E8" t="n">
-        <v>287076</v>
+        <v>319750</v>
       </c>
       <c r="F8" t="n">
-        <v>24107</v>
+        <v>27063</v>
       </c>
       <c r="G8" t="n">
-        <v>5.19</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8.220000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="E9" t="n">
-        <v>418299</v>
+        <v>287076</v>
       </c>
       <c r="F9" t="n">
-        <v>35499</v>
+        <v>24107</v>
       </c>
       <c r="G9" t="n">
-        <v>7.56</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8.949999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>499486</v>
+        <v>418299</v>
       </c>
       <c r="F10" t="n">
-        <v>45583</v>
+        <v>35499</v>
       </c>
       <c r="G10" t="n">
-        <v>9.029999999999999</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.279999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>888094</v>
+        <v>499486</v>
       </c>
       <c r="F11" t="n">
-        <v>83592</v>
+        <v>45583</v>
       </c>
       <c r="G11" t="n">
-        <v>16.06</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.09</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>535573</v>
+        <v>888094</v>
       </c>
       <c r="F12" t="n">
-        <v>45640</v>
+        <v>83592</v>
       </c>
       <c r="G12" t="n">
-        <v>9.68</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,44 +794,73 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8.26</v>
+        <v>9.09</v>
       </c>
       <c r="E13" t="n">
-        <v>234406</v>
+        <v>535573</v>
       </c>
       <c r="F13" t="n">
-        <v>19546</v>
+        <v>45640</v>
       </c>
       <c r="G13" t="n">
-        <v>4.24</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E14" t="n">
+        <v>234406</v>
+      </c>
+      <c r="F14" t="n">
+        <v>19546</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>浙江世宝</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>sz002703</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>8.27</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>218851</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>18240</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>3.96</v>
       </c>
     </row>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.6</v>
+        <v>10.15</v>
       </c>
       <c r="E2" t="n">
-        <v>336117</v>
+        <v>552183</v>
       </c>
       <c r="F2" t="n">
-        <v>32583</v>
+        <v>53878</v>
       </c>
       <c r="G2" t="n">
-        <v>6.08</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.74</v>
+        <v>9.23</v>
       </c>
       <c r="E3" t="n">
-        <v>330373</v>
+        <v>237778</v>
       </c>
       <c r="F3" t="n">
-        <v>31969</v>
+        <v>22146</v>
       </c>
       <c r="G3" t="n">
-        <v>5.97</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.77</v>
+        <v>9.43</v>
       </c>
       <c r="E4" t="n">
-        <v>579408</v>
+        <v>313164</v>
       </c>
       <c r="F4" t="n">
-        <v>56555</v>
+        <v>29774</v>
       </c>
       <c r="G4" t="n">
-        <v>10.48</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.05</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>897256</v>
+        <v>272865</v>
       </c>
       <c r="F5" t="n">
-        <v>87405</v>
+        <v>25870</v>
       </c>
       <c r="G5" t="n">
-        <v>16.22</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.550000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="E6" t="n">
-        <v>1082194</v>
+        <v>336117</v>
       </c>
       <c r="F6" t="n">
-        <v>106493</v>
+        <v>32583</v>
       </c>
       <c r="G6" t="n">
-        <v>19.57</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.43</v>
+        <v>9.74</v>
       </c>
       <c r="E7" t="n">
-        <v>499271</v>
+        <v>330373</v>
       </c>
       <c r="F7" t="n">
-        <v>45078</v>
+        <v>31969</v>
       </c>
       <c r="G7" t="n">
-        <v>9.029999999999999</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.57</v>
+        <v>9.77</v>
       </c>
       <c r="E8" t="n">
-        <v>319750</v>
+        <v>579408</v>
       </c>
       <c r="F8" t="n">
-        <v>27063</v>
+        <v>56555</v>
       </c>
       <c r="G8" t="n">
-        <v>5.78</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8.41</v>
+        <v>10.05</v>
       </c>
       <c r="E9" t="n">
-        <v>287076</v>
+        <v>897256</v>
       </c>
       <c r="F9" t="n">
-        <v>24107</v>
+        <v>87405</v>
       </c>
       <c r="G9" t="n">
-        <v>5.19</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8.220000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>418299</v>
+        <v>1082194</v>
       </c>
       <c r="F10" t="n">
-        <v>35499</v>
+        <v>106493</v>
       </c>
       <c r="G10" t="n">
-        <v>7.56</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8.949999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="E11" t="n">
-        <v>499486</v>
+        <v>499271</v>
       </c>
       <c r="F11" t="n">
-        <v>45583</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
         <v>9.029999999999999</v>
@@ -751,7 +751,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.279999999999999</v>
+        <v>8.57</v>
       </c>
       <c r="E12" t="n">
-        <v>888094</v>
+        <v>319750</v>
       </c>
       <c r="F12" t="n">
-        <v>83592</v>
+        <v>27063</v>
       </c>
       <c r="G12" t="n">
-        <v>16.06</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.09</v>
+        <v>8.41</v>
       </c>
       <c r="E13" t="n">
-        <v>535573</v>
+        <v>287076</v>
       </c>
       <c r="F13" t="n">
-        <v>45640</v>
+        <v>24107</v>
       </c>
       <c r="G13" t="n">
-        <v>9.68</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,44 +823,160 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8.26</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>234406</v>
+        <v>418299</v>
       </c>
       <c r="F14" t="n">
-        <v>19546</v>
+        <v>35499</v>
       </c>
       <c r="G14" t="n">
-        <v>4.24</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>499486</v>
+      </c>
+      <c r="F15" t="n">
+        <v>45583</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>888094</v>
+      </c>
+      <c r="F16" t="n">
+        <v>83592</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16.06</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E17" t="n">
+        <v>535573</v>
+      </c>
+      <c r="F17" t="n">
+        <v>45640</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E18" t="n">
+        <v>234406</v>
+      </c>
+      <c r="F18" t="n">
+        <v>19546</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>浙江世宝</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>sz002703</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>8.27</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E19" t="n">
         <v>218851</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F19" t="n">
         <v>18240</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G19" t="n">
         <v>3.96</v>
       </c>
     </row>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.6</v>
+        <v>9.43</v>
       </c>
       <c r="E2" t="n">
-        <v>336117</v>
+        <v>313164</v>
       </c>
       <c r="F2" t="n">
-        <v>32583</v>
+        <v>29774</v>
       </c>
       <c r="G2" t="n">
-        <v>6.08</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.74</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>330373</v>
+        <v>272865</v>
       </c>
       <c r="F3" t="n">
-        <v>31969</v>
+        <v>25870</v>
       </c>
       <c r="G3" t="n">
-        <v>5.97</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.77</v>
+        <v>9.6</v>
       </c>
       <c r="E4" t="n">
-        <v>579408</v>
+        <v>336117</v>
       </c>
       <c r="F4" t="n">
-        <v>56555</v>
+        <v>32583</v>
       </c>
       <c r="G4" t="n">
-        <v>10.48</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.05</v>
+        <v>9.74</v>
       </c>
       <c r="E5" t="n">
-        <v>897256</v>
+        <v>330373</v>
       </c>
       <c r="F5" t="n">
-        <v>87405</v>
+        <v>31969</v>
       </c>
       <c r="G5" t="n">
-        <v>16.22</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.550000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="E6" t="n">
-        <v>1082194</v>
+        <v>579408</v>
       </c>
       <c r="F6" t="n">
-        <v>106493</v>
+        <v>56555</v>
       </c>
       <c r="G6" t="n">
-        <v>19.57</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.43</v>
+        <v>10.05</v>
       </c>
       <c r="E7" t="n">
-        <v>499271</v>
+        <v>897256</v>
       </c>
       <c r="F7" t="n">
-        <v>45078</v>
+        <v>87405</v>
       </c>
       <c r="G7" t="n">
-        <v>9.029999999999999</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.57</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>319750</v>
+        <v>1082194</v>
       </c>
       <c r="F8" t="n">
-        <v>27063</v>
+        <v>106493</v>
       </c>
       <c r="G8" t="n">
-        <v>5.78</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8.41</v>
+        <v>9.43</v>
       </c>
       <c r="E9" t="n">
-        <v>287076</v>
+        <v>499271</v>
       </c>
       <c r="F9" t="n">
-        <v>24107</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>5.19</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8.220000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="E10" t="n">
-        <v>418299</v>
+        <v>319750</v>
       </c>
       <c r="F10" t="n">
-        <v>35499</v>
+        <v>27063</v>
       </c>
       <c r="G10" t="n">
-        <v>7.56</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8.949999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="E11" t="n">
-        <v>499486</v>
+        <v>287076</v>
       </c>
       <c r="F11" t="n">
-        <v>45583</v>
+        <v>24107</v>
       </c>
       <c r="G11" t="n">
-        <v>9.029999999999999</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.279999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>888094</v>
+        <v>418299</v>
       </c>
       <c r="F12" t="n">
-        <v>83592</v>
+        <v>35499</v>
       </c>
       <c r="G12" t="n">
-        <v>16.06</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.09</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>535573</v>
+        <v>499486</v>
       </c>
       <c r="F13" t="n">
-        <v>45640</v>
+        <v>45583</v>
       </c>
       <c r="G13" t="n">
-        <v>9.68</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,44 +823,102 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8.26</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>234406</v>
+        <v>888094</v>
       </c>
       <c r="F14" t="n">
-        <v>19546</v>
+        <v>83592</v>
       </c>
       <c r="G14" t="n">
-        <v>4.24</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E15" t="n">
+        <v>535573</v>
+      </c>
+      <c r="F15" t="n">
+        <v>45640</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E16" t="n">
+        <v>234406</v>
+      </c>
+      <c r="F16" t="n">
+        <v>19546</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>浙江世宝</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>sz002703</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>8.27</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E17" t="n">
         <v>218851</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F17" t="n">
         <v>18240</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G17" t="n">
         <v>3.96</v>
       </c>
     </row>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.15</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>552183</v>
+        <v>714124</v>
       </c>
       <c r="F2" t="n">
-        <v>53878</v>
+        <v>70687</v>
       </c>
       <c r="G2" t="n">
-        <v>9.98</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.23</v>
+        <v>10.15</v>
       </c>
       <c r="E3" t="n">
-        <v>237778</v>
+        <v>552183</v>
       </c>
       <c r="F3" t="n">
-        <v>22146</v>
+        <v>53878</v>
       </c>
       <c r="G3" t="n">
-        <v>4.3</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.43</v>
+        <v>9.23</v>
       </c>
       <c r="E4" t="n">
-        <v>313164</v>
+        <v>237778</v>
       </c>
       <c r="F4" t="n">
-        <v>29774</v>
+        <v>22146</v>
       </c>
       <c r="G4" t="n">
-        <v>5.66</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.449999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="E5" t="n">
-        <v>272865</v>
+        <v>313164</v>
       </c>
       <c r="F5" t="n">
-        <v>25870</v>
+        <v>29774</v>
       </c>
       <c r="G5" t="n">
-        <v>4.93</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.6</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>336117</v>
+        <v>272865</v>
       </c>
       <c r="F6" t="n">
-        <v>32583</v>
+        <v>25870</v>
       </c>
       <c r="G6" t="n">
-        <v>6.08</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.74</v>
+        <v>9.6</v>
       </c>
       <c r="E7" t="n">
-        <v>330373</v>
+        <v>336117</v>
       </c>
       <c r="F7" t="n">
-        <v>31969</v>
+        <v>32583</v>
       </c>
       <c r="G7" t="n">
-        <v>5.97</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9.77</v>
+        <v>9.74</v>
       </c>
       <c r="E8" t="n">
-        <v>579408</v>
+        <v>330373</v>
       </c>
       <c r="F8" t="n">
-        <v>56555</v>
+        <v>31969</v>
       </c>
       <c r="G8" t="n">
-        <v>10.48</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10.05</v>
+        <v>9.77</v>
       </c>
       <c r="E9" t="n">
-        <v>897256</v>
+        <v>579408</v>
       </c>
       <c r="F9" t="n">
-        <v>87405</v>
+        <v>56555</v>
       </c>
       <c r="G9" t="n">
-        <v>16.22</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9.550000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="E10" t="n">
-        <v>1082194</v>
+        <v>897256</v>
       </c>
       <c r="F10" t="n">
-        <v>106493</v>
+        <v>87405</v>
       </c>
       <c r="G10" t="n">
-        <v>19.57</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.43</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>499271</v>
+        <v>1082194</v>
       </c>
       <c r="F11" t="n">
-        <v>45078</v>
+        <v>106493</v>
       </c>
       <c r="G11" t="n">
-        <v>9.029999999999999</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8.57</v>
+        <v>9.43</v>
       </c>
       <c r="E12" t="n">
-        <v>319750</v>
+        <v>499271</v>
       </c>
       <c r="F12" t="n">
-        <v>27063</v>
+        <v>45078</v>
       </c>
       <c r="G12" t="n">
-        <v>5.78</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8.41</v>
+        <v>8.57</v>
       </c>
       <c r="E13" t="n">
-        <v>287076</v>
+        <v>319750</v>
       </c>
       <c r="F13" t="n">
-        <v>24107</v>
+        <v>27063</v>
       </c>
       <c r="G13" t="n">
-        <v>5.19</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8.220000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="E14" t="n">
-        <v>418299</v>
+        <v>287076</v>
       </c>
       <c r="F14" t="n">
-        <v>35499</v>
+        <v>24107</v>
       </c>
       <c r="G14" t="n">
-        <v>7.56</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8.949999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>499486</v>
+        <v>418299</v>
       </c>
       <c r="F15" t="n">
-        <v>45583</v>
+        <v>35499</v>
       </c>
       <c r="G15" t="n">
-        <v>9.029999999999999</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9.279999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>888094</v>
+        <v>499486</v>
       </c>
       <c r="F16" t="n">
-        <v>83592</v>
+        <v>45583</v>
       </c>
       <c r="G16" t="n">
-        <v>16.06</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9.09</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>535573</v>
+        <v>888094</v>
       </c>
       <c r="F17" t="n">
-        <v>45640</v>
+        <v>83592</v>
       </c>
       <c r="G17" t="n">
-        <v>9.68</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,44 +939,73 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8.26</v>
+        <v>9.09</v>
       </c>
       <c r="E18" t="n">
-        <v>234406</v>
+        <v>535573</v>
       </c>
       <c r="F18" t="n">
-        <v>19546</v>
+        <v>45640</v>
       </c>
       <c r="G18" t="n">
-        <v>4.24</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E19" t="n">
+        <v>234406</v>
+      </c>
+      <c r="F19" t="n">
+        <v>19546</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>浙江世宝</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>sz002703</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>8.27</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E20" t="n">
         <v>218851</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>18240</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>3.96</v>
       </c>
     </row>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.779999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="E2" t="n">
-        <v>714124</v>
+        <v>318304</v>
       </c>
       <c r="F2" t="n">
-        <v>70687</v>
+        <v>30581</v>
       </c>
       <c r="G2" t="n">
-        <v>12.91</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.15</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>552183</v>
+        <v>714124</v>
       </c>
       <c r="F3" t="n">
-        <v>53878</v>
+        <v>70687</v>
       </c>
       <c r="G3" t="n">
-        <v>9.98</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.23</v>
+        <v>10.15</v>
       </c>
       <c r="E4" t="n">
-        <v>237778</v>
+        <v>552183</v>
       </c>
       <c r="F4" t="n">
-        <v>22146</v>
+        <v>53878</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.43</v>
+        <v>9.23</v>
       </c>
       <c r="E5" t="n">
-        <v>313164</v>
+        <v>237778</v>
       </c>
       <c r="F5" t="n">
-        <v>29774</v>
+        <v>22146</v>
       </c>
       <c r="G5" t="n">
-        <v>5.66</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.449999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="E6" t="n">
-        <v>272865</v>
+        <v>313164</v>
       </c>
       <c r="F6" t="n">
-        <v>25870</v>
+        <v>29774</v>
       </c>
       <c r="G6" t="n">
-        <v>4.93</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.6</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>336117</v>
+        <v>272865</v>
       </c>
       <c r="F7" t="n">
-        <v>32583</v>
+        <v>25870</v>
       </c>
       <c r="G7" t="n">
-        <v>6.08</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9.74</v>
+        <v>9.6</v>
       </c>
       <c r="E8" t="n">
-        <v>330373</v>
+        <v>336117</v>
       </c>
       <c r="F8" t="n">
-        <v>31969</v>
+        <v>32583</v>
       </c>
       <c r="G8" t="n">
-        <v>5.97</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.77</v>
+        <v>9.74</v>
       </c>
       <c r="E9" t="n">
-        <v>579408</v>
+        <v>330373</v>
       </c>
       <c r="F9" t="n">
-        <v>56555</v>
+        <v>31969</v>
       </c>
       <c r="G9" t="n">
-        <v>10.48</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10.05</v>
+        <v>9.77</v>
       </c>
       <c r="E10" t="n">
-        <v>897256</v>
+        <v>579408</v>
       </c>
       <c r="F10" t="n">
-        <v>87405</v>
+        <v>56555</v>
       </c>
       <c r="G10" t="n">
-        <v>16.22</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.550000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="E11" t="n">
-        <v>1082194</v>
+        <v>897256</v>
       </c>
       <c r="F11" t="n">
-        <v>106493</v>
+        <v>87405</v>
       </c>
       <c r="G11" t="n">
-        <v>19.57</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.43</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>499271</v>
+        <v>1082194</v>
       </c>
       <c r="F12" t="n">
-        <v>45078</v>
+        <v>106493</v>
       </c>
       <c r="G12" t="n">
-        <v>9.029999999999999</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8.57</v>
+        <v>9.43</v>
       </c>
       <c r="E13" t="n">
-        <v>319750</v>
+        <v>499271</v>
       </c>
       <c r="F13" t="n">
-        <v>27063</v>
+        <v>45078</v>
       </c>
       <c r="G13" t="n">
-        <v>5.78</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8.41</v>
+        <v>8.57</v>
       </c>
       <c r="E14" t="n">
-        <v>287076</v>
+        <v>319750</v>
       </c>
       <c r="F14" t="n">
-        <v>24107</v>
+        <v>27063</v>
       </c>
       <c r="G14" t="n">
-        <v>5.19</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8.220000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="E15" t="n">
-        <v>418299</v>
+        <v>287076</v>
       </c>
       <c r="F15" t="n">
-        <v>35499</v>
+        <v>24107</v>
       </c>
       <c r="G15" t="n">
-        <v>7.56</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8.949999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>499486</v>
+        <v>418299</v>
       </c>
       <c r="F16" t="n">
-        <v>45583</v>
+        <v>35499</v>
       </c>
       <c r="G16" t="n">
-        <v>9.029999999999999</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9.279999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>888094</v>
+        <v>499486</v>
       </c>
       <c r="F17" t="n">
-        <v>83592</v>
+        <v>45583</v>
       </c>
       <c r="G17" t="n">
-        <v>16.06</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.09</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>535573</v>
+        <v>888094</v>
       </c>
       <c r="F18" t="n">
-        <v>45640</v>
+        <v>83592</v>
       </c>
       <c r="G18" t="n">
-        <v>9.68</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,44 +968,73 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8.26</v>
+        <v>9.09</v>
       </c>
       <c r="E19" t="n">
-        <v>234406</v>
+        <v>535573</v>
       </c>
       <c r="F19" t="n">
-        <v>19546</v>
+        <v>45640</v>
       </c>
       <c r="G19" t="n">
-        <v>4.24</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E20" t="n">
+        <v>234406</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19546</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>浙江世宝</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>sz002703</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>浙江世宝</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sz002703</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>8.27</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E21" t="n">
         <v>218851</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F21" t="n">
         <v>18240</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>3.96</v>
       </c>
     </row>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.66</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>318304</v>
+        <v>389009</v>
       </c>
       <c r="F2" t="n">
-        <v>30581</v>
+        <v>37885</v>
       </c>
       <c r="G2" t="n">
-        <v>5.76</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.779999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="E3" t="n">
-        <v>714124</v>
+        <v>318304</v>
       </c>
       <c r="F3" t="n">
-        <v>70687</v>
+        <v>30581</v>
       </c>
       <c r="G3" t="n">
-        <v>12.91</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.15</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>552183</v>
+        <v>714124</v>
       </c>
       <c r="F4" t="n">
-        <v>53878</v>
+        <v>70687</v>
       </c>
       <c r="G4" t="n">
-        <v>9.98</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.23</v>
+        <v>10.15</v>
       </c>
       <c r="E5" t="n">
-        <v>237778</v>
+        <v>552183</v>
       </c>
       <c r="F5" t="n">
-        <v>22146</v>
+        <v>53878</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.43</v>
+        <v>9.23</v>
       </c>
       <c r="E6" t="n">
-        <v>313164</v>
+        <v>237778</v>
       </c>
       <c r="F6" t="n">
-        <v>29774</v>
+        <v>22146</v>
       </c>
       <c r="G6" t="n">
-        <v>5.66</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.449999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="E7" t="n">
-        <v>272865</v>
+        <v>313164</v>
       </c>
       <c r="F7" t="n">
-        <v>25870</v>
+        <v>29774</v>
       </c>
       <c r="G7" t="n">
-        <v>4.93</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9.6</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>336117</v>
+        <v>272865</v>
       </c>
       <c r="F8" t="n">
-        <v>32583</v>
+        <v>25870</v>
       </c>
       <c r="G8" t="n">
-        <v>6.08</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.74</v>
+        <v>9.6</v>
       </c>
       <c r="E9" t="n">
-        <v>330373</v>
+        <v>336117</v>
       </c>
       <c r="F9" t="n">
-        <v>31969</v>
+        <v>32583</v>
       </c>
       <c r="G9" t="n">
-        <v>5.97</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9.77</v>
+        <v>9.74</v>
       </c>
       <c r="E10" t="n">
-        <v>579408</v>
+        <v>330373</v>
       </c>
       <c r="F10" t="n">
-        <v>56555</v>
+        <v>31969</v>
       </c>
       <c r="G10" t="n">
-        <v>10.48</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.05</v>
+        <v>9.77</v>
       </c>
       <c r="E11" t="n">
-        <v>897256</v>
+        <v>579408</v>
       </c>
       <c r="F11" t="n">
-        <v>87405</v>
+        <v>56555</v>
       </c>
       <c r="G11" t="n">
-        <v>16.22</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.550000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="E12" t="n">
-        <v>1082194</v>
+        <v>897256</v>
       </c>
       <c r="F12" t="n">
-        <v>106493</v>
+        <v>87405</v>
       </c>
       <c r="G12" t="n">
-        <v>19.57</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.43</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>499271</v>
+        <v>1082194</v>
       </c>
       <c r="F13" t="n">
-        <v>45078</v>
+        <v>106493</v>
       </c>
       <c r="G13" t="n">
-        <v>9.029999999999999</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8.57</v>
+        <v>9.43</v>
       </c>
       <c r="E14" t="n">
-        <v>319750</v>
+        <v>499271</v>
       </c>
       <c r="F14" t="n">
-        <v>27063</v>
+        <v>45078</v>
       </c>
       <c r="G14" t="n">
-        <v>5.78</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8.41</v>
+        <v>8.57</v>
       </c>
       <c r="E15" t="n">
-        <v>287076</v>
+        <v>319750</v>
       </c>
       <c r="F15" t="n">
-        <v>24107</v>
+        <v>27063</v>
       </c>
       <c r="G15" t="n">
-        <v>5.19</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8.220000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="E16" t="n">
-        <v>418299</v>
+        <v>287076</v>
       </c>
       <c r="F16" t="n">
-        <v>35499</v>
+        <v>24107</v>
       </c>
       <c r="G16" t="n">
-        <v>7.56</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8.949999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>499486</v>
+        <v>418299</v>
       </c>
       <c r="F17" t="n">
-        <v>45583</v>
+        <v>35499</v>
       </c>
       <c r="G17" t="n">
-        <v>9.029999999999999</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.279999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>888094</v>
+        <v>499486</v>
       </c>
       <c r="F18" t="n">
-        <v>83592</v>
+        <v>45583</v>
       </c>
       <c r="G18" t="n">
-        <v>16.06</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9.09</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>535573</v>
+        <v>888094</v>
       </c>
       <c r="F19" t="n">
-        <v>45640</v>
+        <v>83592</v>
       </c>
       <c r="G19" t="n">
-        <v>9.68</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8.26</v>
+        <v>9.09</v>
       </c>
       <c r="E20" t="n">
-        <v>234406</v>
+        <v>535573</v>
       </c>
       <c r="F20" t="n">
-        <v>19546</v>
+        <v>45640</v>
       </c>
       <c r="G20" t="n">
-        <v>4.24</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8.27</v>
+        <v>8.26</v>
       </c>
       <c r="E21" t="n">
-        <v>218851</v>
+        <v>234406</v>
       </c>
       <c r="F21" t="n">
-        <v>18240</v>
+        <v>19546</v>
       </c>
       <c r="G21" t="n">
-        <v>3.96</v>
+        <v>4.24</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.529999999999999</v>
+        <v>10.14</v>
       </c>
       <c r="E2" t="n">
-        <v>389009</v>
+        <v>956396</v>
       </c>
       <c r="F2" t="n">
-        <v>37885</v>
+        <v>96590</v>
       </c>
       <c r="G2" t="n">
-        <v>7.03</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.66</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>318304</v>
+        <v>389009</v>
       </c>
       <c r="F3" t="n">
-        <v>30581</v>
+        <v>37885</v>
       </c>
       <c r="G3" t="n">
-        <v>5.76</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="E4" t="n">
-        <v>714124</v>
+        <v>318304</v>
       </c>
       <c r="F4" t="n">
-        <v>70687</v>
+        <v>30581</v>
       </c>
       <c r="G4" t="n">
-        <v>12.91</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.15</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>552183</v>
+        <v>714124</v>
       </c>
       <c r="F5" t="n">
-        <v>53878</v>
+        <v>70687</v>
       </c>
       <c r="G5" t="n">
-        <v>9.98</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.23</v>
+        <v>10.15</v>
       </c>
       <c r="E6" t="n">
-        <v>237778</v>
+        <v>552183</v>
       </c>
       <c r="F6" t="n">
-        <v>22146</v>
+        <v>53878</v>
       </c>
       <c r="G6" t="n">
-        <v>4.3</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.43</v>
+        <v>9.23</v>
       </c>
       <c r="E7" t="n">
-        <v>313164</v>
+        <v>237778</v>
       </c>
       <c r="F7" t="n">
-        <v>29774</v>
+        <v>22146</v>
       </c>
       <c r="G7" t="n">
-        <v>5.66</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9.449999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="E8" t="n">
-        <v>272865</v>
+        <v>313164</v>
       </c>
       <c r="F8" t="n">
-        <v>25870</v>
+        <v>29774</v>
       </c>
       <c r="G8" t="n">
-        <v>4.93</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.6</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>336117</v>
+        <v>272865</v>
       </c>
       <c r="F9" t="n">
-        <v>32583</v>
+        <v>25870</v>
       </c>
       <c r="G9" t="n">
-        <v>6.08</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9.74</v>
+        <v>9.6</v>
       </c>
       <c r="E10" t="n">
-        <v>330373</v>
+        <v>336117</v>
       </c>
       <c r="F10" t="n">
-        <v>31969</v>
+        <v>32583</v>
       </c>
       <c r="G10" t="n">
-        <v>5.97</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.77</v>
+        <v>9.74</v>
       </c>
       <c r="E11" t="n">
-        <v>579408</v>
+        <v>330373</v>
       </c>
       <c r="F11" t="n">
-        <v>56555</v>
+        <v>31969</v>
       </c>
       <c r="G11" t="n">
-        <v>10.48</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10.05</v>
+        <v>9.77</v>
       </c>
       <c r="E12" t="n">
-        <v>897256</v>
+        <v>579408</v>
       </c>
       <c r="F12" t="n">
-        <v>87405</v>
+        <v>56555</v>
       </c>
       <c r="G12" t="n">
-        <v>16.22</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.550000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="E13" t="n">
-        <v>1082194</v>
+        <v>897256</v>
       </c>
       <c r="F13" t="n">
-        <v>106493</v>
+        <v>87405</v>
       </c>
       <c r="G13" t="n">
-        <v>19.57</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.43</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>499271</v>
+        <v>1082194</v>
       </c>
       <c r="F14" t="n">
-        <v>45078</v>
+        <v>106493</v>
       </c>
       <c r="G14" t="n">
-        <v>9.029999999999999</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8.57</v>
+        <v>9.43</v>
       </c>
       <c r="E15" t="n">
-        <v>319750</v>
+        <v>499271</v>
       </c>
       <c r="F15" t="n">
-        <v>27063</v>
+        <v>45078</v>
       </c>
       <c r="G15" t="n">
-        <v>5.78</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8.41</v>
+        <v>8.57</v>
       </c>
       <c r="E16" t="n">
-        <v>287076</v>
+        <v>319750</v>
       </c>
       <c r="F16" t="n">
-        <v>24107</v>
+        <v>27063</v>
       </c>
       <c r="G16" t="n">
-        <v>5.19</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8.220000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="E17" t="n">
-        <v>418299</v>
+        <v>287076</v>
       </c>
       <c r="F17" t="n">
-        <v>35499</v>
+        <v>24107</v>
       </c>
       <c r="G17" t="n">
-        <v>7.56</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8.949999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>499486</v>
+        <v>418299</v>
       </c>
       <c r="F18" t="n">
-        <v>45583</v>
+        <v>35499</v>
       </c>
       <c r="G18" t="n">
-        <v>9.029999999999999</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9.279999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>888094</v>
+        <v>499486</v>
       </c>
       <c r="F19" t="n">
-        <v>83592</v>
+        <v>45583</v>
       </c>
       <c r="G19" t="n">
-        <v>16.06</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9.09</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>535573</v>
+        <v>888094</v>
       </c>
       <c r="F20" t="n">
-        <v>45640</v>
+        <v>83592</v>
       </c>
       <c r="G20" t="n">
-        <v>9.68</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8.26</v>
+        <v>9.09</v>
       </c>
       <c r="E21" t="n">
-        <v>234406</v>
+        <v>535573</v>
       </c>
       <c r="F21" t="n">
-        <v>19546</v>
+        <v>45640</v>
       </c>
       <c r="G21" t="n">
-        <v>4.24</v>
+        <v>9.68</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.14</v>
+        <v>9.74</v>
       </c>
       <c r="E2" t="n">
-        <v>956396</v>
+        <v>215888</v>
       </c>
       <c r="F2" t="n">
-        <v>96590</v>
+        <v>20833</v>
       </c>
       <c r="G2" t="n">
-        <v>17.29</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.529999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="E3" t="n">
-        <v>389009</v>
+        <v>374622</v>
       </c>
       <c r="F3" t="n">
-        <v>37885</v>
+        <v>35445</v>
       </c>
       <c r="G3" t="n">
-        <v>7.03</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.66</v>
+        <v>10.14</v>
       </c>
       <c r="E4" t="n">
-        <v>318304</v>
+        <v>956396</v>
       </c>
       <c r="F4" t="n">
-        <v>30581</v>
+        <v>96590</v>
       </c>
       <c r="G4" t="n">
-        <v>5.76</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.779999999999999</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>714124</v>
+        <v>389009</v>
       </c>
       <c r="F5" t="n">
-        <v>70687</v>
+        <v>37885</v>
       </c>
       <c r="G5" t="n">
-        <v>12.91</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10.15</v>
+        <v>9.66</v>
       </c>
       <c r="E6" t="n">
-        <v>552183</v>
+        <v>318304</v>
       </c>
       <c r="F6" t="n">
-        <v>53878</v>
+        <v>30581</v>
       </c>
       <c r="G6" t="n">
-        <v>9.98</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.23</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>237778</v>
+        <v>714124</v>
       </c>
       <c r="F7" t="n">
-        <v>22146</v>
+        <v>70687</v>
       </c>
       <c r="G7" t="n">
-        <v>4.3</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9.43</v>
+        <v>10.15</v>
       </c>
       <c r="E8" t="n">
-        <v>313164</v>
+        <v>552183</v>
       </c>
       <c r="F8" t="n">
-        <v>29774</v>
+        <v>53878</v>
       </c>
       <c r="G8" t="n">
-        <v>5.66</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.449999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="E9" t="n">
-        <v>272865</v>
+        <v>237778</v>
       </c>
       <c r="F9" t="n">
-        <v>25870</v>
+        <v>22146</v>
       </c>
       <c r="G9" t="n">
-        <v>4.93</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9.6</v>
+        <v>9.43</v>
       </c>
       <c r="E10" t="n">
-        <v>336117</v>
+        <v>313164</v>
       </c>
       <c r="F10" t="n">
-        <v>32583</v>
+        <v>29774</v>
       </c>
       <c r="G10" t="n">
-        <v>6.08</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.74</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>330373</v>
+        <v>272865</v>
       </c>
       <c r="F11" t="n">
-        <v>31969</v>
+        <v>25870</v>
       </c>
       <c r="G11" t="n">
-        <v>5.97</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.77</v>
+        <v>9.6</v>
       </c>
       <c r="E12" t="n">
-        <v>579408</v>
+        <v>336117</v>
       </c>
       <c r="F12" t="n">
-        <v>56555</v>
+        <v>32583</v>
       </c>
       <c r="G12" t="n">
-        <v>10.48</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10.05</v>
+        <v>9.74</v>
       </c>
       <c r="E13" t="n">
-        <v>897256</v>
+        <v>330373</v>
       </c>
       <c r="F13" t="n">
-        <v>87405</v>
+        <v>31969</v>
       </c>
       <c r="G13" t="n">
-        <v>16.22</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.550000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="E14" t="n">
-        <v>1082194</v>
+        <v>579408</v>
       </c>
       <c r="F14" t="n">
-        <v>106493</v>
+        <v>56555</v>
       </c>
       <c r="G14" t="n">
-        <v>19.57</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9.43</v>
+        <v>10.05</v>
       </c>
       <c r="E15" t="n">
-        <v>499271</v>
+        <v>897256</v>
       </c>
       <c r="F15" t="n">
-        <v>45078</v>
+        <v>87405</v>
       </c>
       <c r="G15" t="n">
-        <v>9.029999999999999</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8.57</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>319750</v>
+        <v>1082194</v>
       </c>
       <c r="F16" t="n">
-        <v>27063</v>
+        <v>106493</v>
       </c>
       <c r="G16" t="n">
-        <v>5.78</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8.41</v>
+        <v>9.43</v>
       </c>
       <c r="E17" t="n">
-        <v>287076</v>
+        <v>499271</v>
       </c>
       <c r="F17" t="n">
-        <v>24107</v>
+        <v>45078</v>
       </c>
       <c r="G17" t="n">
-        <v>5.19</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8.220000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="E18" t="n">
-        <v>418299</v>
+        <v>319750</v>
       </c>
       <c r="F18" t="n">
-        <v>35499</v>
+        <v>27063</v>
       </c>
       <c r="G18" t="n">
-        <v>7.56</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8.949999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="E19" t="n">
-        <v>499486</v>
+        <v>287076</v>
       </c>
       <c r="F19" t="n">
-        <v>45583</v>
+        <v>24107</v>
       </c>
       <c r="G19" t="n">
-        <v>9.029999999999999</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9.279999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>888094</v>
+        <v>418299</v>
       </c>
       <c r="F20" t="n">
-        <v>83592</v>
+        <v>35499</v>
       </c>
       <c r="G20" t="n">
-        <v>16.06</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9.09</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>535573</v>
+        <v>499486</v>
       </c>
       <c r="F21" t="n">
-        <v>45640</v>
+        <v>45583</v>
       </c>
       <c r="G21" t="n">
-        <v>9.68</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.74</v>
+        <v>9.66</v>
       </c>
       <c r="E2" t="n">
-        <v>215888</v>
+        <v>341811</v>
       </c>
       <c r="F2" t="n">
-        <v>20833</v>
+        <v>33014</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="3">

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.66</v>
+        <v>10.63</v>
       </c>
       <c r="E2" t="n">
-        <v>341811</v>
+        <v>1049011</v>
       </c>
       <c r="F2" t="n">
-        <v>33014</v>
+        <v>109601</v>
       </c>
       <c r="G2" t="n">
-        <v>6.18</v>
+        <v>18.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.5</v>
+        <v>9.66</v>
       </c>
       <c r="E3" t="n">
-        <v>374622</v>
+        <v>341811</v>
       </c>
       <c r="F3" t="n">
-        <v>35445</v>
+        <v>33014</v>
       </c>
       <c r="G3" t="n">
-        <v>6.77</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.14</v>
+        <v>9.5</v>
       </c>
       <c r="E4" t="n">
-        <v>956396</v>
+        <v>374622</v>
       </c>
       <c r="F4" t="n">
-        <v>96590</v>
+        <v>35445</v>
       </c>
       <c r="G4" t="n">
-        <v>17.29</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.529999999999999</v>
+        <v>10.14</v>
       </c>
       <c r="E5" t="n">
-        <v>389009</v>
+        <v>956396</v>
       </c>
       <c r="F5" t="n">
-        <v>37885</v>
+        <v>96590</v>
       </c>
       <c r="G5" t="n">
-        <v>7.03</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.66</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>318304</v>
+        <v>389009</v>
       </c>
       <c r="F6" t="n">
-        <v>30581</v>
+        <v>37885</v>
       </c>
       <c r="G6" t="n">
-        <v>5.76</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.779999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="E7" t="n">
-        <v>714124</v>
+        <v>318304</v>
       </c>
       <c r="F7" t="n">
-        <v>70687</v>
+        <v>30581</v>
       </c>
       <c r="G7" t="n">
-        <v>12.91</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.15</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>552183</v>
+        <v>714124</v>
       </c>
       <c r="F8" t="n">
-        <v>53878</v>
+        <v>70687</v>
       </c>
       <c r="G8" t="n">
-        <v>9.98</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.23</v>
+        <v>10.15</v>
       </c>
       <c r="E9" t="n">
-        <v>237778</v>
+        <v>552183</v>
       </c>
       <c r="F9" t="n">
-        <v>22146</v>
+        <v>53878</v>
       </c>
       <c r="G9" t="n">
-        <v>4.3</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9.43</v>
+        <v>9.23</v>
       </c>
       <c r="E10" t="n">
-        <v>313164</v>
+        <v>237778</v>
       </c>
       <c r="F10" t="n">
-        <v>29774</v>
+        <v>22146</v>
       </c>
       <c r="G10" t="n">
-        <v>5.66</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.449999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="E11" t="n">
-        <v>272865</v>
+        <v>313164</v>
       </c>
       <c r="F11" t="n">
-        <v>25870</v>
+        <v>29774</v>
       </c>
       <c r="G11" t="n">
-        <v>4.93</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.6</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>336117</v>
+        <v>272865</v>
       </c>
       <c r="F12" t="n">
-        <v>32583</v>
+        <v>25870</v>
       </c>
       <c r="G12" t="n">
-        <v>6.08</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.74</v>
+        <v>9.6</v>
       </c>
       <c r="E13" t="n">
-        <v>330373</v>
+        <v>336117</v>
       </c>
       <c r="F13" t="n">
-        <v>31969</v>
+        <v>32583</v>
       </c>
       <c r="G13" t="n">
-        <v>5.97</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.77</v>
+        <v>9.74</v>
       </c>
       <c r="E14" t="n">
-        <v>579408</v>
+        <v>330373</v>
       </c>
       <c r="F14" t="n">
-        <v>56555</v>
+        <v>31969</v>
       </c>
       <c r="G14" t="n">
-        <v>10.48</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10.05</v>
+        <v>9.77</v>
       </c>
       <c r="E15" t="n">
-        <v>897256</v>
+        <v>579408</v>
       </c>
       <c r="F15" t="n">
-        <v>87405</v>
+        <v>56555</v>
       </c>
       <c r="G15" t="n">
-        <v>16.22</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9.550000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="E16" t="n">
-        <v>1082194</v>
+        <v>897256</v>
       </c>
       <c r="F16" t="n">
-        <v>106493</v>
+        <v>87405</v>
       </c>
       <c r="G16" t="n">
-        <v>19.57</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9.43</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>499271</v>
+        <v>1082194</v>
       </c>
       <c r="F17" t="n">
-        <v>45078</v>
+        <v>106493</v>
       </c>
       <c r="G17" t="n">
-        <v>9.029999999999999</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8.57</v>
+        <v>9.43</v>
       </c>
       <c r="E18" t="n">
-        <v>319750</v>
+        <v>499271</v>
       </c>
       <c r="F18" t="n">
-        <v>27063</v>
+        <v>45078</v>
       </c>
       <c r="G18" t="n">
-        <v>5.78</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8.41</v>
+        <v>8.57</v>
       </c>
       <c r="E19" t="n">
-        <v>287076</v>
+        <v>319750</v>
       </c>
       <c r="F19" t="n">
-        <v>24107</v>
+        <v>27063</v>
       </c>
       <c r="G19" t="n">
-        <v>5.19</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8.220000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="E20" t="n">
-        <v>418299</v>
+        <v>287076</v>
       </c>
       <c r="F20" t="n">
-        <v>35499</v>
+        <v>24107</v>
       </c>
       <c r="G20" t="n">
-        <v>7.56</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8.949999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>499486</v>
+        <v>418299</v>
       </c>
       <c r="F21" t="n">
-        <v>45583</v>
+        <v>35499</v>
       </c>
       <c r="G21" t="n">
-        <v>9.029999999999999</v>
+        <v>7.56</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.66</v>
+        <v>10.61</v>
       </c>
       <c r="E2" t="n">
-        <v>341811</v>
+        <v>1347785</v>
       </c>
       <c r="F2" t="n">
-        <v>33014</v>
+        <v>148262</v>
       </c>
       <c r="G2" t="n">
-        <v>6.18</v>
+        <v>24.37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.5</v>
+        <v>10.63</v>
       </c>
       <c r="E3" t="n">
-        <v>374622</v>
+        <v>1049011</v>
       </c>
       <c r="F3" t="n">
-        <v>35445</v>
+        <v>109601</v>
       </c>
       <c r="G3" t="n">
-        <v>6.77</v>
+        <v>18.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.14</v>
+        <v>9.66</v>
       </c>
       <c r="E4" t="n">
-        <v>956396</v>
+        <v>341811</v>
       </c>
       <c r="F4" t="n">
-        <v>96590</v>
+        <v>33014</v>
       </c>
       <c r="G4" t="n">
-        <v>17.29</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.529999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>389009</v>
+        <v>374622</v>
       </c>
       <c r="F5" t="n">
-        <v>37885</v>
+        <v>35445</v>
       </c>
       <c r="G5" t="n">
-        <v>7.03</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.66</v>
+        <v>10.14</v>
       </c>
       <c r="E6" t="n">
-        <v>318304</v>
+        <v>956396</v>
       </c>
       <c r="F6" t="n">
-        <v>30581</v>
+        <v>96590</v>
       </c>
       <c r="G6" t="n">
-        <v>5.76</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.779999999999999</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>714124</v>
+        <v>389009</v>
       </c>
       <c r="F7" t="n">
-        <v>70687</v>
+        <v>37885</v>
       </c>
       <c r="G7" t="n">
-        <v>12.91</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.15</v>
+        <v>9.66</v>
       </c>
       <c r="E8" t="n">
-        <v>552183</v>
+        <v>318304</v>
       </c>
       <c r="F8" t="n">
-        <v>53878</v>
+        <v>30581</v>
       </c>
       <c r="G8" t="n">
-        <v>9.98</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.23</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>237778</v>
+        <v>714124</v>
       </c>
       <c r="F9" t="n">
-        <v>22146</v>
+        <v>70687</v>
       </c>
       <c r="G9" t="n">
-        <v>4.3</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9.43</v>
+        <v>10.15</v>
       </c>
       <c r="E10" t="n">
-        <v>313164</v>
+        <v>552183</v>
       </c>
       <c r="F10" t="n">
-        <v>29774</v>
+        <v>53878</v>
       </c>
       <c r="G10" t="n">
-        <v>5.66</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.449999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="E11" t="n">
-        <v>272865</v>
+        <v>237778</v>
       </c>
       <c r="F11" t="n">
-        <v>25870</v>
+        <v>22146</v>
       </c>
       <c r="G11" t="n">
-        <v>4.93</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.6</v>
+        <v>9.43</v>
       </c>
       <c r="E12" t="n">
-        <v>336117</v>
+        <v>313164</v>
       </c>
       <c r="F12" t="n">
-        <v>32583</v>
+        <v>29774</v>
       </c>
       <c r="G12" t="n">
-        <v>6.08</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.74</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>330373</v>
+        <v>272865</v>
       </c>
       <c r="F13" t="n">
-        <v>31969</v>
+        <v>25870</v>
       </c>
       <c r="G13" t="n">
-        <v>5.97</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.77</v>
+        <v>9.6</v>
       </c>
       <c r="E14" t="n">
-        <v>579408</v>
+        <v>336117</v>
       </c>
       <c r="F14" t="n">
-        <v>56555</v>
+        <v>32583</v>
       </c>
       <c r="G14" t="n">
-        <v>10.48</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10.05</v>
+        <v>9.74</v>
       </c>
       <c r="E15" t="n">
-        <v>897256</v>
+        <v>330373</v>
       </c>
       <c r="F15" t="n">
-        <v>87405</v>
+        <v>31969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.22</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9.550000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="E16" t="n">
-        <v>1082194</v>
+        <v>579408</v>
       </c>
       <c r="F16" t="n">
-        <v>106493</v>
+        <v>56555</v>
       </c>
       <c r="G16" t="n">
-        <v>19.57</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9.43</v>
+        <v>10.05</v>
       </c>
       <c r="E17" t="n">
-        <v>499271</v>
+        <v>897256</v>
       </c>
       <c r="F17" t="n">
-        <v>45078</v>
+        <v>87405</v>
       </c>
       <c r="G17" t="n">
-        <v>9.029999999999999</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8.57</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>319750</v>
+        <v>1082194</v>
       </c>
       <c r="F18" t="n">
-        <v>27063</v>
+        <v>106493</v>
       </c>
       <c r="G18" t="n">
-        <v>5.78</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8.41</v>
+        <v>9.43</v>
       </c>
       <c r="E19" t="n">
-        <v>287076</v>
+        <v>499271</v>
       </c>
       <c r="F19" t="n">
-        <v>24107</v>
+        <v>45078</v>
       </c>
       <c r="G19" t="n">
-        <v>5.19</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8.220000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="E20" t="n">
-        <v>418299</v>
+        <v>319750</v>
       </c>
       <c r="F20" t="n">
-        <v>35499</v>
+        <v>27063</v>
       </c>
       <c r="G20" t="n">
-        <v>7.56</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8.949999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="E21" t="n">
-        <v>499486</v>
+        <v>287076</v>
       </c>
       <c r="F21" t="n">
-        <v>45583</v>
+        <v>24107</v>
       </c>
       <c r="G21" t="n">
-        <v>9.029999999999999</v>
+        <v>5.19</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz002703.xlsx
+++ b/gengxiang/data/sz002703.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.61</v>
+        <v>10.31</v>
       </c>
       <c r="E2" t="n">
-        <v>1347785</v>
+        <v>622631</v>
       </c>
       <c r="F2" t="n">
-        <v>148262</v>
+        <v>65098</v>
       </c>
       <c r="G2" t="n">
-        <v>24.37</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.63</v>
+        <v>10.61</v>
       </c>
       <c r="E3" t="n">
-        <v>1049011</v>
+        <v>1347785</v>
       </c>
       <c r="F3" t="n">
-        <v>109601</v>
+        <v>148262</v>
       </c>
       <c r="G3" t="n">
-        <v>18.97</v>
+        <v>24.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.66</v>
+        <v>10.63</v>
       </c>
       <c r="E4" t="n">
-        <v>341811</v>
+        <v>1049011</v>
       </c>
       <c r="F4" t="n">
-        <v>33014</v>
+        <v>109601</v>
       </c>
       <c r="G4" t="n">
-        <v>6.18</v>
+        <v>18.97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>9.66</v>
       </c>
       <c r="E5" t="n">
-        <v>374622</v>
+        <v>341811</v>
       </c>
       <c r="F5" t="n">
-        <v>35445</v>
+        <v>33014</v>
       </c>
       <c r="G5" t="n">
-        <v>6.77</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10.14</v>
+        <v>9.5</v>
       </c>
       <c r="E6" t="n">
-        <v>956396</v>
+        <v>374622</v>
       </c>
       <c r="F6" t="n">
-        <v>96590</v>
+        <v>35445</v>
       </c>
       <c r="G6" t="n">
-        <v>17.29</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.529999999999999</v>
+        <v>10.14</v>
       </c>
       <c r="E7" t="n">
-        <v>389009</v>
+        <v>956396</v>
       </c>
       <c r="F7" t="n">
-        <v>37885</v>
+        <v>96590</v>
       </c>
       <c r="G7" t="n">
-        <v>7.03</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9.66</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>318304</v>
+        <v>389009</v>
       </c>
       <c r="F8" t="n">
-        <v>30581</v>
+        <v>37885</v>
       </c>
       <c r="G8" t="n">
-        <v>5.76</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.779999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="E9" t="n">
-        <v>714124</v>
+        <v>318304</v>
       </c>
       <c r="F9" t="n">
-        <v>70687</v>
+        <v>30581</v>
       </c>
       <c r="G9" t="n">
-        <v>12.91</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10.15</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>552183</v>
+        <v>714124</v>
       </c>
       <c r="F10" t="n">
-        <v>53878</v>
+        <v>70687</v>
       </c>
       <c r="G10" t="n">
-        <v>9.98</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.23</v>
+        <v>10.15</v>
       </c>
       <c r="E11" t="n">
-        <v>237778</v>
+        <v>552183</v>
       </c>
       <c r="F11" t="n">
-        <v>22146</v>
+        <v>53878</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.43</v>
+        <v>9.23</v>
       </c>
       <c r="E12" t="n">
-        <v>313164</v>
+        <v>237778</v>
       </c>
       <c r="F12" t="n">
-        <v>29774</v>
+        <v>22146</v>
       </c>
       <c r="G12" t="n">
-        <v>5.66</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.449999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="E13" t="n">
-        <v>272865</v>
+        <v>313164</v>
       </c>
       <c r="F13" t="n">
-        <v>25870</v>
+        <v>29774</v>
       </c>
       <c r="G13" t="n">
-        <v>4.93</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.6</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>336117</v>
+        <v>272865</v>
       </c>
       <c r="F14" t="n">
-        <v>32583</v>
+        <v>25870</v>
       </c>
       <c r="G14" t="n">
-        <v>6.08</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9.74</v>
+        <v>9.6</v>
       </c>
       <c r="E15" t="n">
-        <v>330373</v>
+        <v>336117</v>
       </c>
       <c r="F15" t="n">
-        <v>31969</v>
+        <v>32583</v>
       </c>
       <c r="G15" t="n">
-        <v>5.97</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9.77</v>
+        <v>9.74</v>
       </c>
       <c r="E16" t="n">
-        <v>579408</v>
+        <v>330373</v>
       </c>
       <c r="F16" t="n">
-        <v>56555</v>
+        <v>31969</v>
       </c>
       <c r="G16" t="n">
-        <v>10.48</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10.05</v>
+        <v>9.77</v>
       </c>
       <c r="E17" t="n">
-        <v>897256</v>
+        <v>579408</v>
       </c>
       <c r="F17" t="n">
-        <v>87405</v>
+        <v>56555</v>
       </c>
       <c r="G17" t="n">
-        <v>16.22</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.550000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="E18" t="n">
-        <v>1082194</v>
+        <v>897256</v>
       </c>
       <c r="F18" t="n">
-        <v>106493</v>
+        <v>87405</v>
       </c>
       <c r="G18" t="n">
-        <v>19.57</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9.43</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>499271</v>
+        <v>1082194</v>
       </c>
       <c r="F19" t="n">
-        <v>45078</v>
+        <v>106493</v>
       </c>
       <c r="G19" t="n">
-        <v>9.029999999999999</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8.57</v>
+        <v>9.43</v>
       </c>
       <c r="E20" t="n">
-        <v>319750</v>
+        <v>499271</v>
       </c>
       <c r="F20" t="n">
-        <v>27063</v>
+        <v>45078</v>
       </c>
       <c r="G20" t="n">
-        <v>5.78</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8.41</v>
+        <v>8.57</v>
       </c>
       <c r="E21" t="n">
-        <v>287076</v>
+        <v>319750</v>
       </c>
       <c r="F21" t="n">
-        <v>24107</v>
+        <v>27063</v>
       </c>
       <c r="G21" t="n">
-        <v>5.19</v>
+        <v>5.78</v>
       </c>
     </row>
   </sheetData>
